--- a/admin/teaching_plan_412_612.xlsx
+++ b/admin/teaching_plan_412_612.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgerard\Dropbox\teaching\stat_412_612\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EA3339CC-A22D-4B78-BF8D-C93D94711117}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E8A70FF1-BB26-45B8-BDE7-39ABF4D1A799}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="5985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>rel data w dplyr (Ch 13)</t>
   </si>
   <si>
-    <t>Intro, Tool Installs (Ch 1-2)</t>
-  </si>
-  <si>
     <t>5:30 - 6:15</t>
   </si>
   <si>
@@ -153,7 +150,10 @@
     <t>9. factors, dates &amp; times</t>
   </si>
   <si>
-    <t>R programming (Ch. 17-21 + Sect 1-3 of style.tidyverse.org)</t>
+    <t>Intro, Tool Installs (Ch 1-2, 4)</t>
+  </si>
+  <si>
+    <t>R programming (Ch. 17-19 + Sect 1-3 of style.tidyverse.org)</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,16 +536,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>43481</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -611,7 +611,7 @@
         <v>43502</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -638,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -647,13 +647,13 @@
         <v>43516</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
@@ -665,16 +665,16 @@
         <v>43523</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -701,16 +701,16 @@
         <v>43537</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -719,16 +719,16 @@
         <v>43544</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -764,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -773,16 +773,16 @@
         <v>43565</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -791,16 +791,16 @@
         <v>43572</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -827,13 +827,13 @@
         <v>43586</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
